--- a/samples/Popup_Only/csv_file__address_one_field/Points.xlsx
+++ b/samples/Popup_Only/csv_file__address_one_field/Points.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupert\Documents\ArcGIS Online\Templates\Story Maps templates\Story Map Shortlist\samples\Popup_Only\csv_file__address_one_field\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="96" windowWidth="19152" windowHeight="12336"/>
   </bookViews>
@@ -14,306 +19,282 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+  <si>
+    <t>http://www.shermansdeli.com/</t>
+  </si>
+  <si>
+    <t>This old school Kosher-style family restaurant is a local institution popular with residents and people attending conferences at the nearby Convention Center.</t>
+  </si>
+  <si>
+    <t>Sherman's Deli and Bakery</t>
+  </si>
+  <si>
+    <t>Old school Jewish deli and local institution close to Convention Center.</t>
+  </si>
+  <si>
+    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_shermans.png</t>
+  </si>
+  <si>
+    <t>http://palmgreenscafe.com/</t>
+  </si>
+  <si>
+    <t>Very friendly place serving healthy high quality organic food. This is your best bet for wholefood type dining in Palm Springs. Fresh squeezed juices and smoothies too. Nice environment.</t>
+  </si>
+  <si>
+    <t>Palm Greens Cafe</t>
+  </si>
+  <si>
+    <t>Friendly place with healthy food and nice atmosphere.</t>
+  </si>
+  <si>
+    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_palm_greens.png</t>
+  </si>
+  <si>
+    <t>http://www.kofficoffee.com</t>
+  </si>
+  <si>
+    <t>Hip coffee bar with cool contemporary design (part of the Oceo development). They also have a location in downtown Palm Springs in the Uptown Design District. This location is just north of the Twin Palms Estates neighborhood. Free wi-fi.</t>
+  </si>
+  <si>
+    <t>Koffi</t>
+  </si>
+  <si>
+    <t>Hip coffee bar part of stylish new development.</t>
+  </si>
+  <si>
+    <t>http://downloads.esri.com/blogs/places/palmsprings/cafe_koffi.png</t>
+  </si>
+  <si>
+    <t>Hip coffee bar in historic commercial building. A secret garden courtyard out back known only to locals has beautiful mountain vistas. Free wi-fi.</t>
+  </si>
+  <si>
+    <t>Hip coffee bar with nice courtyard.</t>
+  </si>
+  <si>
+    <t>http://monsoonindianrestaurant.com/</t>
+  </si>
+  <si>
+    <t>Indian restaurant in rather out-of-the-way location. Buffet lunch offered daily too. Meat and vegetarian entrees.</t>
+  </si>
+  <si>
+    <t>Monsoon Indian Cuisine</t>
+  </si>
+  <si>
+    <t>Great food from the Indian sub-continent.</t>
+  </si>
+  <si>
+    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_monsoon.png</t>
+  </si>
+  <si>
+    <t>http://www.cheekysps.com</t>
+  </si>
+  <si>
+    <t>622 North Palm Canyon Drive, Palm Springs, CA 92262</t>
+  </si>
+  <si>
+    <t>Very popular spot for breakfast or lunch in the Uptown Design District. Interesting menu with items like 'garnet yam hash with maple sage sausage and poached eggs' and 'omelette with rainbow chard, serrano chile, roasted cumin and drunken goat cheese'.</t>
+  </si>
+  <si>
+    <t>Cheeky's</t>
+  </si>
+  <si>
+    <t>Very popular breakfast and lunch spot.</t>
+  </si>
+  <si>
+    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_cheekys.png</t>
+  </si>
+  <si>
+    <t>http://www.acehotel.com/palmsprings/dining</t>
+  </si>
+  <si>
+    <t>The Kings Highway is a reimagined American diner serving seasonal and organic food in a renovated building that used to be a Denny's. Breakfast, lunch, dinner and late nite. The Amigo Room, a dark cocktail lounge, is adjacent behind the hotel lobby.</t>
+  </si>
+  <si>
+    <t>Kings Highway</t>
+  </si>
+  <si>
+    <t>Reimagined hipster diner in the Ace Hotel.</t>
+  </si>
+  <si>
+    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_kings_highway.png</t>
+  </si>
+  <si>
+    <t>http://www.colonypalmshotel.com/dining.php</t>
+  </si>
+  <si>
+    <t>Hidden away in the beautiful Colony Palms Hotel you'll find this glamorous small restaurant with indoor or poolside seating in the garden. Expensive.</t>
+  </si>
+  <si>
+    <t>Purple Palm Restaurant and Bar</t>
+  </si>
+  <si>
+    <t>Very romantic hideway in quiet small hotel.</t>
+  </si>
+  <si>
+    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_purple_palm.png</t>
+  </si>
+  <si>
+    <t>http://tylersburgers.com/</t>
+  </si>
+  <si>
+    <t>149 S Indian Canyon Dr, Palm Springs, CA 92262</t>
+  </si>
+  <si>
+    <t>Tyler's Burgers</t>
+  </si>
+  <si>
+    <t>Local institution widely considered best burger in town.</t>
+  </si>
+  <si>
+    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_tylers.png</t>
+  </si>
+  <si>
+    <t>http://aspenmillsps.com/</t>
+  </si>
+  <si>
+    <t>555 S Sunrise Way, Palm Springs, CA 92264</t>
+  </si>
+  <si>
+    <t>Locals flock here for fresh-baked daily breads, muffins, and cookies, and for their sandwiches and salads. They also have two locations in Rancho Mirage to the east.</t>
+  </si>
+  <si>
+    <t>Aspen Mills Bakery &amp; Bread Company</t>
+  </si>
+  <si>
+    <t>Popular local bakery and lunch place.</t>
+  </si>
+  <si>
+    <t>http://downloads.esri.com/blogs/places/palmsprings/cafe_aspen_mills.png</t>
+  </si>
+  <si>
+    <t>http://www.cafeeuropapalmsprings.com/</t>
+  </si>
+  <si>
+    <t>Cafe Europa offers cafe/bistro style food and a trendy atmosphere. The businesses in this building share a courtyard garden with views of the mountains. It's located at the south end of the Uptown Design District.</t>
+  </si>
+  <si>
+    <t>Cafe Europa</t>
+  </si>
+  <si>
+    <t>Breakfast and lunch place with patio in nice courtyard.</t>
+  </si>
+  <si>
+    <t>http://downloads.esri.com/blogs/places/palmsprings/cafe_europa.png</t>
+  </si>
+  <si>
+    <t>http://www.copleyspalmsprings.com</t>
+  </si>
+  <si>
+    <t>621 North Palm Canyon Drive, Palm Springs, CA 92262</t>
+  </si>
+  <si>
+    <t>Expensive, classy, but casual dinner experience. Eat inside in the former 1940's guesthouse of Cary Grant's estate, or on the mountain-view patio. Reservations recommended.</t>
+  </si>
+  <si>
+    <t>Copley's on Palm Canyon</t>
+  </si>
+  <si>
+    <t>Upscale fine American cuisine in part of Cary Grant's old estate.</t>
+  </si>
+  <si>
+    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_copleys.png</t>
+  </si>
+  <si>
+    <t>http://www.elmirasolrestaurants.com/</t>
+  </si>
+  <si>
+    <t>There are two El Mirasol restaurants in town. This is the nicest of the two, with indoor and outdoor seating in an attractive adobe-style building, with a very pleasant walled garden patio.</t>
+  </si>
+  <si>
+    <t>El Mirasol at Los Arboles</t>
+  </si>
+  <si>
+    <t>Mexican restaurant in very attractive building with a walled garden patio.</t>
+  </si>
+  <si>
+    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_el_mirasol.png</t>
+  </si>
+  <si>
+    <t>http://www.triopalmsprings.com</t>
+  </si>
+  <si>
+    <t>707 N Palm Canyon Dr, Palm Springs, CA 92262</t>
+  </si>
+  <si>
+    <t>Trendy atmosphere with nicely designed interior. Can be pricey.</t>
+  </si>
+  <si>
+    <t>Trio</t>
+  </si>
+  <si>
+    <t>Cool contemporary restaurant in the Uptown Design District</t>
+  </si>
+  <si>
+    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_trio.png</t>
+  </si>
+  <si>
+    <t>http://links.esri.com/palmsprings/places/escena_grill</t>
+  </si>
+  <si>
+    <t>Golf is a big part of the Palm Springs experience so here's a restaurant on a public golf course. This is often recommended by locals. There are dramatic views to the mountains from the patio dining area or sit indoors in classy, bright, attractive room.</t>
+  </si>
+  <si>
+    <t>Escena Lounge &amp; Grill</t>
+  </si>
+  <si>
+    <t>Super views over the greens at this restaurant in a golf club.</t>
+  </si>
+  <si>
+    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_escena_grill.png</t>
+  </si>
+  <si>
+    <t>Tyler's has been here in the Mercado Plaza for years serving a classic menu of burgers and sandwiches. A recent Los Angeles Times story said that if you ask almost anyone in Palm Springs where to get a great burger the answer probably is Tyler's.</t>
+  </si>
+  <si>
+    <t>401 E Tahquitz Canyon Way, Palm Springs, CA 92262.</t>
+  </si>
+  <si>
+    <t>572 North Indian Canyon Drive, Palm Springs, CA 92262</t>
+  </si>
+  <si>
+    <t>266 Via Altamira, Palm Springs, CA 92262</t>
+  </si>
+  <si>
+    <t>515 North Palm Canyon Drive, Palm Springs, CA 92262</t>
+  </si>
+  <si>
+    <t>515 North Palm Canyon, Palm Springs, CA 92262</t>
+  </si>
+  <si>
+    <t>1700 South Camino Real, Palm Springs, CA 92264</t>
+  </si>
+  <si>
+    <t>701 E. Palm Canyon Dr, Palm Springs, CA 92264</t>
+  </si>
+  <si>
+    <t>611 S. Palm Canyon Drive, Palm Springs, CA 92264</t>
+  </si>
+  <si>
+    <t>1100 Clubhouse View Dr, Palm Springs, CA 92262</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Short_Desc</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
   <si>
     <t>Website</t>
   </si>
   <si>
+    <t>Pic_URL</t>
+  </si>
+  <si>
     <t>Address</t>
-  </si>
-  <si>
-    <t>Desc1</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Short_Desc</t>
-  </si>
-  <si>
-    <t>Image_URL</t>
-  </si>
-  <si>
-    <t>http://www.lulupalmsprings.com/</t>
-  </si>
-  <si>
-    <t>200 South Palm Canyon Drive, Palm Springs, CA 92262</t>
-  </si>
-  <si>
-    <t>This recently opened huge, lively restaurant is exactly what Palm Springs needed: an attractive big-city style place to eat with a very extensive menu that is great value including many inexpensive options for dinner.</t>
-  </si>
-  <si>
-    <t>Lulu California Bistro</t>
-  </si>
-  <si>
-    <t>The great atmosphere, stylish building, and reasonable prices make this large restaurant one of the best places to eat in town.</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_lulus_bistro.png</t>
-  </si>
-  <si>
-    <t>http://www.shermansdeli.com/</t>
-  </si>
-  <si>
-    <t>401 E Tahquitz Canyon Way, Palm Springs, CA 92262. Opposite the Hilton Palm Springs Hotel between Calle Encilia and Calle El Segundo.</t>
-  </si>
-  <si>
-    <t>This old school Kosher-style family restaurant is a local institution popular with residents and people attending conferences at the nearby Convention Center.</t>
-  </si>
-  <si>
-    <t>Sherman's Deli and Bakery</t>
-  </si>
-  <si>
-    <t>Old school Jewish deli and local institution close to Convention Center.</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_shermans.png</t>
-  </si>
-  <si>
-    <t>http://palmgreenscafe.com/</t>
-  </si>
-  <si>
-    <t>611 S. Palm Canyon Drive, Palm Springs, CA 92264 in shopping mall</t>
-  </si>
-  <si>
-    <t>Very friendly place serving healthy high quality organic food. This is your best bet for wholefood type dining in Palm Springs. Fresh squeezed juices and smoothies too. Nice environment.</t>
-  </si>
-  <si>
-    <t>Palm Greens Cafe</t>
-  </si>
-  <si>
-    <t>Friendly place with healthy food and nice atmosphere.</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_palm_greens.png</t>
-  </si>
-  <si>
-    <t>http://www.kofficoffee.com</t>
-  </si>
-  <si>
-    <t>1700 South Camino Real, Palm Springs, CA 92264. On the corner of South Camino Real and East Palm Canyon Drive.</t>
-  </si>
-  <si>
-    <t>Hip coffee bar with cool contemporary design (part of the Oceo development). They also have a location in downtown Palm Springs in the Uptown Design District. This location is just north of the Twin Palms Estates neighborhood. Free wi-fi.</t>
-  </si>
-  <si>
-    <t>Koffi</t>
-  </si>
-  <si>
-    <t>Hip coffee bar part of stylish new development.</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/palmsprings/cafe_koffi.png</t>
-  </si>
-  <si>
-    <t>515 North Palm Canyon Drive, Palm Springs, CA 92262 near the corner of West Alejo Road.</t>
-  </si>
-  <si>
-    <t>Hip coffee bar in historic commercial building. A secret garden courtyard out back known only to locals has beautiful mountain vistas. Free wi-fi.</t>
-  </si>
-  <si>
-    <t>Hip coffee bar with nice courtyard.</t>
-  </si>
-  <si>
-    <t>http://monsoonindianrestaurant.com/</t>
-  </si>
-  <si>
-    <t>555 S Sunrise Way #107, Palm Springs, CA 92264</t>
-  </si>
-  <si>
-    <t>Indian restaurant in rather out-of-the-way location. Buffet lunch offered daily too. Meat and vegetarian entrees.</t>
-  </si>
-  <si>
-    <t>Monsoon Indian Cuisine</t>
-  </si>
-  <si>
-    <t>Great food from the Indian sub-continent.</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_monsoon.png</t>
-  </si>
-  <si>
-    <t>http://www.cheekysps.com</t>
-  </si>
-  <si>
-    <t>622 North Palm Canyon Drive, Palm Springs, CA 92262</t>
-  </si>
-  <si>
-    <t>Very popular spot for breakfast or lunch in the Uptown Design District. Interesting menu with items like 'garnet yam hash with maple sage sausage and poached eggs' and 'omelette with rainbow chard, serrano chile, roasted cumin and drunken goat cheese'.</t>
-  </si>
-  <si>
-    <t>Cheeky's</t>
-  </si>
-  <si>
-    <t>Very popular breakfast and lunch spot.</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_cheekys.png</t>
-  </si>
-  <si>
-    <t>http://www.acehotel.com/palmsprings/dining</t>
-  </si>
-  <si>
-    <t>701 E. Palm Canyon Dr, Palm Springs, CA 92264 in the Ace Hotel</t>
-  </si>
-  <si>
-    <t>The Kings Highway is a reimagined American diner serving seasonal and organic food in a renovated building that used to be a Denny's. Breakfast, lunch, dinner and late nite. The Amigo Room, a dark cocktail lounge, is adjacent behind the hotel lobby.</t>
-  </si>
-  <si>
-    <t>Kings Highway</t>
-  </si>
-  <si>
-    <t>Reimagined hipster diner in the Ace Hotel.</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_kings_highway.png</t>
-  </si>
-  <si>
-    <t>http://www.colonypalmshotel.com/dining.php</t>
-  </si>
-  <si>
-    <t>572 North Indian Canyon Drive, Palm Springs, CA 92262 in the Colony Palms Hotel</t>
-  </si>
-  <si>
-    <t>Hidden away in the beautiful Colony Palms Hotel you'll find this glamorous small restaurant with indoor or poolside seating in the garden. Expensive.</t>
-  </si>
-  <si>
-    <t>Purple Palm Restaurant and Bar</t>
-  </si>
-  <si>
-    <t>Very romantic hideway in quiet small hotel.</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_purple_palm.png</t>
-  </si>
-  <si>
-    <t>http://tylersburgers.com/</t>
-  </si>
-  <si>
-    <t>149 S Indian Canyon Dr, Palm Springs, CA 92262</t>
-  </si>
-  <si>
-    <t>Tyler's Burgers</t>
-  </si>
-  <si>
-    <t>Local institution widely considered best burger in town.</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_tylers.png</t>
-  </si>
-  <si>
-    <t>http://aspenmillsps.com/</t>
-  </si>
-  <si>
-    <t>555 S Sunrise Way, Palm Springs, CA 92264</t>
-  </si>
-  <si>
-    <t>Locals flock here for fresh-baked daily breads, muffins, and cookies, and for their sandwiches and salads. They also have two locations in Rancho Mirage to the east.</t>
-  </si>
-  <si>
-    <t>Aspen Mills Bakery &amp; Bread Company</t>
-  </si>
-  <si>
-    <t>Popular local bakery and lunch place.</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/palmsprings/cafe_aspen_mills.png</t>
-  </si>
-  <si>
-    <t>http://www.cafeeuropapalmsprings.com/</t>
-  </si>
-  <si>
-    <t>515 N Palm Canyon, Palm Springs, CA 92262</t>
-  </si>
-  <si>
-    <t>Cafe Europa offers cafe/bistro style food and a trendy atmosphere. The businesses in this building share a courtyard garden with views of the mountains. It's located at the south end of the Uptown Design District.</t>
-  </si>
-  <si>
-    <t>Cafe Europa</t>
-  </si>
-  <si>
-    <t>Breakfast and lunch place with patio in nice courtyard.</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/palmsprings/cafe_europa.png</t>
-  </si>
-  <si>
-    <t>http://www.copleyspalmsprings.com</t>
-  </si>
-  <si>
-    <t>621 North Palm Canyon Drive, Palm Springs, CA 92262</t>
-  </si>
-  <si>
-    <t>Expensive, classy, but casual dinner experience. Eat inside in the former 1940's guesthouse of Cary Grant's estate, or on the mountain-view patio. Reservations recommended.</t>
-  </si>
-  <si>
-    <t>Copley's on Palm Canyon</t>
-  </si>
-  <si>
-    <t>Upscale fine American cuisine in part of Cary Grant's old estate.</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_copleys.png</t>
-  </si>
-  <si>
-    <t>http://www.elmirasolrestaurants.com/</t>
-  </si>
-  <si>
-    <t>266 Via Altamira, Palm Springs, CA 92262 (off North Indian Canyon Drive) in the Los Arboles Hotel.</t>
-  </si>
-  <si>
-    <t>There are two El Mirasol restaurants in town. This is the nicest of the two, with indoor and outdoor seating in an attractive adobe-style building, with a very pleasant walled garden patio.</t>
-  </si>
-  <si>
-    <t>El Mirasol at Los Arboles</t>
-  </si>
-  <si>
-    <t>Mexican restaurant in very attractive building with a walled garden patio.</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_el_mirasol.png</t>
-  </si>
-  <si>
-    <t>http://www.triopalmsprings.com</t>
-  </si>
-  <si>
-    <t>707 N Palm Canyon Dr, Palm Springs, CA 92262</t>
-  </si>
-  <si>
-    <t>Trendy atmosphere with nicely designed interior. Can be pricey.</t>
-  </si>
-  <si>
-    <t>Trio</t>
-  </si>
-  <si>
-    <t>Cool contemporary restaurant in the Uptown Design District</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_trio.png</t>
-  </si>
-  <si>
-    <t>http://links.esri.com/palmsprings/places/escena_grill</t>
-  </si>
-  <si>
-    <t>1100 Clubhouse View Dr., Palm Springs, CA 92262</t>
-  </si>
-  <si>
-    <t>Golf is a big part of the Palm Springs experience so here's a restaurant on a public golf course. This is often recommended by locals. There are dramatic views to the mountains from the patio dining area or sit indoors in classy, bright, attractive room.</t>
-  </si>
-  <si>
-    <t>Escena Lounge &amp; Grill</t>
-  </si>
-  <si>
-    <t>Super views over the greens at this restaurant in a golf club.</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/palmsprings/restaurant_escena_grill.png</t>
-  </si>
-  <si>
-    <t>Tyler's has been here in the Mercado Plaza for years serving a classic menu of burgers and sandwiches. A recent Los Angeles Times story said that if you ask almost anyone in Palm Springs where to get a great burger the answer probably is Tyler's.</t>
   </si>
 </sst>
 </file>
@@ -864,6 +845,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -911,7 +895,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -946,7 +930,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1155,413 +1139,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="113.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="113.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
